--- a/biology/Microbiologie/Glaucomidae/Glaucomidae.xlsx
+++ b/biology/Microbiologie/Glaucomidae/Glaucomidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Glaucomidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Hymenostomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Glaucoma, dérivé du grec  γλαυκός / glaukós, « glauque », c'est à dire de couleur vert pâle ou gris.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Glaucomidae ont une taille, petite (&lt; 80 μm) à moyenne (80 à 200 μm). Leur forme varie entre ovoïde et ellipsoïde. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), avec des cinétiques ventrales droites courbées vers la gauche, mais, dans de rares cas, se tordent brusquement vers l'avant pour devenir parallèles à la suture antérieure (sauf chez le genre Glaucomella). Leur  cavité buccale est relativement grande, avec au moins une partie postérieure parorale non ciliée et complètement résorbée dans le genre Bursostoma, et avec l'un ou les deux polykinétides oraux 2 et 3 ayant plus de 3 rangées de kinétosomes. On observe un petit groupe de kinétosomes, appelé groupe X, généralement antérieur au polykinétide oral 2 élargi. Leur macronoyau est globulaire à ellipsoïde, parfois réniforme. Sont présents un micronoyau, des vacuoles contractiles et un cytoprocte (orifice anal). 
-Ils sont microphages, mais plusieurs espèces sont carnivores sur d'autres ciliés, certaines subissant une transformation microstome-tomacrostome pour devenir carnivores. Certaines espèces se présentent sous forme de « kystes de repos »[1].
+Ils sont microphages, mais plusieurs espèces sont carnivores sur d'autres ciliés, certaines subissant une transformation microstome-tomacrostome pour devenir carnivores. Certaines espèces se présentent sous forme de « kystes de repos ».
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Glaucomidae vivent dans des habitats d’eau douce et parfois terrestres[1]. Ils sont répandus en Europe, rarement dans d'autres continents selon GBIF.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Glaucomidae vivent dans des habitats d’eau douce et parfois terrestres. Ils sont répandus en Europe, rarement dans d'autres continents selon GBIF.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 novembre 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 novembre 2023) :
 Dichilum Schewiakoff, 1892
 Epenardia Corliss, 1971
 Espejoia Bürger, 1917
@@ -663,9 +683,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Glaucomidae Corliss, 1971[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Glaucomidae Corliss, 1971.
 </t>
         </is>
       </c>
